--- a/Health_Monte_Carlo_Input.xlsx
+++ b/Health_Monte_Carlo_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beau/Git/Health_Insurance_Sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08804396-16D2-E04C-ADF8-E1F5C1685C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D923A-2662-8C4F-9FA8-DD26651F1765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15540" xr2:uid="{F6F7CCB2-3530-C445-A614-1A88D2B30731}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <definedName name="RiskUseFixedSeed" hidden="1">FALSE</definedName>
     <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,7 +111,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -120,12 +120,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Was 7 before baby. Now is 7 + 5 = 12.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Was 7 before baby. Now is 7 + 5 = 12.</t>
         </r>
       </text>
     </comment>
@@ -135,7 +144,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -144,12 +153,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Was 6 before baby. Now 6 + 2 = 8.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Was 6 before baby. Now 6 + 2 = 8.</t>
         </r>
       </text>
     </comment>
@@ -254,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Issue</t>
   </si>
@@ -341,6 +359,27 @@
   </si>
   <si>
     <t>Avg / Yr</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Script Stops after First Empty Row</t>
+  </si>
+  <si>
+    <t>Script Ends after 5 Rows</t>
+  </si>
+  <si>
+    <t>EV (Raw)</t>
+  </si>
+  <si>
+    <t>Output Max</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -353,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +449,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF40FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,16 +594,14 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -546,6 +610,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF40FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -858,15 +927,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="12" customWidth="1"/>
@@ -882,32 +951,32 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="29" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -918,7 +987,7 @@
       <c r="B2" s="6">
         <v>200</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>12</v>
       </c>
       <c r="E2" s="7">
@@ -954,7 +1023,7 @@
       <c r="B3" s="6">
         <v>400</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="24">
         <v>8</v>
       </c>
       <c r="E3" s="7">
@@ -990,7 +1059,7 @@
       <c r="B4" s="11">
         <v>235</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="24">
         <v>0.39</v>
       </c>
       <c r="E4" s="7">
@@ -1026,7 +1095,7 @@
       <c r="B5" s="11">
         <v>120</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>3</v>
       </c>
       <c r="E5" s="7">
@@ -1062,7 +1131,7 @@
       <c r="B6" s="11">
         <v>20</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>6</v>
       </c>
       <c r="E6" s="7">
@@ -1098,7 +1167,7 @@
       <c r="B7" s="11">
         <v>100</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>1</v>
       </c>
       <c r="E7" s="7">
@@ -1134,7 +1203,7 @@
       <c r="B8" s="11">
         <v>250</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>0</v>
       </c>
       <c r="E8" s="7">
@@ -1170,7 +1239,7 @@
       <c r="B9" s="11">
         <v>300</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>4</v>
       </c>
       <c r="E9" s="7">
@@ -1206,7 +1275,7 @@
       <c r="B10" s="11">
         <v>3500</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>3</v>
       </c>
       <c r="E10" s="7">
@@ -1242,7 +1311,7 @@
       <c r="B11" s="11">
         <v>200</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>2</v>
       </c>
       <c r="E11" s="7">
@@ -1278,7 +1347,7 @@
       <c r="B12" s="11">
         <v>25000</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="24">
         <v>0</v>
       </c>
       <c r="E12" s="7">
@@ -1314,7 +1383,7 @@
       <c r="B13" s="11">
         <v>50000</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>0.01</v>
       </c>
       <c r="E13" s="7">
@@ -1350,7 +1419,7 @@
       <c r="B14" s="15">
         <v>15000</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <v>0.1</v>
       </c>
       <c r="E14" s="7">
@@ -1390,7 +1459,10 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D16" s="24" t="s">
+      <c r="A16" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="8">
@@ -1427,8 +1499,15 @@
         <v>6921.5916000000007</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D17" s="24" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="30">
+        <f>SUMPRODUCT(B2:C14)</f>
+        <v>95364.5</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="17">
@@ -1459,7 +1538,7 @@
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1490,8 +1569,8 @@
       <c r="O18" s="16"/>
       <c r="Q18" s="4"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D19" s="24" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="18">
@@ -1521,8 +1600,8 @@
       </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D20" s="24" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="18">
@@ -1552,7 +1631,7 @@
       </c>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="H21" s="4"/>
@@ -1563,37 +1642,204 @@
       <c r="M21" s="4"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D22" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="28">
+        <f>E16</f>
+        <v>3276</v>
+      </c>
+      <c r="F23" s="28">
+        <f>F16</f>
+        <v>3996</v>
+      </c>
+      <c r="G23" s="28">
+        <f>G16</f>
+        <v>5856</v>
+      </c>
+      <c r="H23" s="28">
+        <f>H16</f>
+        <v>9312</v>
+      </c>
+      <c r="J23" s="28">
+        <f>J16</f>
+        <v>10306.203599999999</v>
+      </c>
+      <c r="K23" s="28">
+        <f>K16</f>
+        <v>8712.8580000000002</v>
+      </c>
+      <c r="L23" s="28">
+        <f>L16</f>
+        <v>6735.4056</v>
+      </c>
+      <c r="M23" s="28">
+        <f>M16</f>
+        <v>6921.5916000000007</v>
+      </c>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="28">
+        <f>SUM(E16,E20)</f>
+        <v>15276</v>
+      </c>
+      <c r="F24" s="28">
+        <f>SUM(F16,F20)</f>
+        <v>17996</v>
+      </c>
+      <c r="G24" s="28">
+        <f>SUM(G16,G20)</f>
+        <v>17856</v>
+      </c>
+      <c r="H24" s="28">
+        <f>SUM(H16,H20)</f>
+        <v>12312</v>
+      </c>
+      <c r="J24" s="28">
+        <f>SUM(J16,J20)</f>
+        <v>16306.203599999999</v>
+      </c>
+      <c r="K24" s="28">
+        <f>SUM(K16,K20)</f>
+        <v>25812.858</v>
+      </c>
+      <c r="L24" s="28">
+        <f>SUM(L16,L20)</f>
+        <v>23835.405599999998</v>
+      </c>
+      <c r="M24" s="28">
+        <f>SUM(M16,M20)</f>
+        <v>16621.5916</v>
+      </c>
       <c r="N24" s="21"/>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>15083</v>
+      </c>
+      <c r="F25">
+        <v>17663</v>
+      </c>
+      <c r="G25" s="12">
+        <v>17368</v>
+      </c>
+      <c r="H25">
+        <v>11636</v>
+      </c>
+      <c r="J25">
+        <v>15497</v>
+      </c>
+      <c r="K25">
+        <v>25087</v>
+      </c>
+      <c r="L25">
+        <v>23274</v>
+      </c>
+      <c r="M25">
+        <v>16445</v>
+      </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="28">
+        <f>E24-E25</f>
+        <v>193</v>
+      </c>
+      <c r="F26" s="28">
+        <f>F24-F25</f>
+        <v>333</v>
+      </c>
+      <c r="G26" s="28">
+        <f>G24-G25</f>
+        <v>488</v>
+      </c>
+      <c r="H26" s="28">
+        <f>H24-H25</f>
+        <v>676</v>
+      </c>
+      <c r="J26" s="28">
+        <f>J24-J25</f>
+        <v>809.20359999999891</v>
+      </c>
+      <c r="K26" s="28">
+        <f>K24-K25</f>
+        <v>725.85800000000017</v>
+      </c>
+      <c r="L26" s="28">
+        <f>L24-L25</f>
+        <v>561.40559999999823</v>
+      </c>
+      <c r="M26" s="28">
+        <f>M24-M25</f>
+        <v>176.59159999999974</v>
+      </c>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E27" s="28">
+        <f>E16/12</f>
+        <v>273</v>
+      </c>
+      <c r="F27" s="28">
+        <f>F16/12</f>
+        <v>333</v>
+      </c>
+      <c r="G27" s="28">
+        <f>G16/12</f>
+        <v>488</v>
+      </c>
+      <c r="H27" s="28">
+        <f>H16/12</f>
+        <v>776</v>
+      </c>
+      <c r="J27" s="28">
+        <f>J16/12</f>
+        <v>858.85029999999995</v>
+      </c>
+      <c r="K27" s="28">
+        <f>K16/12</f>
+        <v>726.07150000000001</v>
+      </c>
+      <c r="L27" s="28">
+        <f>L16/12</f>
+        <v>561.28380000000004</v>
+      </c>
+      <c r="M27" s="28">
+        <f>M16/12</f>
+        <v>576.79930000000002</v>
+      </c>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.2">

--- a/Health_Monte_Carlo_Input.xlsx
+++ b/Health_Monte_Carlo_Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beau/Git/Health_Insurance_Sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7D923A-2662-8C4F-9FA8-DD26651F1765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F961D8B-92F6-DE45-98A1-4B14FA68BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15540" xr2:uid="{F6F7CCB2-3530-C445-A614-1A88D2B30731}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{F6F7CCB2-3530-C445-A614-1A88D2B30731}"/>
   </bookViews>
   <sheets>
     <sheet name="InputParms" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <author>Beau Griffith</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{CCD0B4F9-AC47-EC4D-86E6-3F76A8245C6C}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{CCD0B4F9-AC47-EC4D-86E6-3F76A8245C6C}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{592E2CC7-D9EA-4546-8FE4-A5E3FB240C01}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{592E2CC7-D9EA-4546-8FE4-A5E3FB240C01}">
       <text>
         <r>
           <rPr>
@@ -171,13 +171,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{80349C8B-5B70-5442-A8EF-8C3DFD7C686E}">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{80349C8B-5B70-5442-A8EF-8C3DFD7C686E}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -186,22 +186,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Was 2 before baby. Now is 2 + 4 = 6.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Was 2 before baby. Now is 2 + 4 = 6.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{973BCDFE-BBFC-D24B-BCD3-3EC626EF36AE}">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{973BCDFE-BBFC-D24B-BCD3-3EC626EF36AE}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -210,16 +219,25 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Was 2 before baby. Now is 2 + 2 = 4.</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Was 2 before baby. Now is 2 + 2 = 4.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{3543CFCB-83F1-BA4E-899F-EEBC04C0DF97}">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{3543CFCB-83F1-BA4E-899F-EEBC04C0DF97}">
       <text>
         <r>
           <rPr>
@@ -243,27 +261,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{5DA423FA-E372-A04A-A52F-613C9678945A}">
+    <comment ref="L16" authorId="0" shapeId="0" xr:uid="{5DA423FA-E372-A04A-A52F-613C9678945A}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Beau Griffith:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2024 rates marked up by 10% (assumption)</t>
+          <t>These went up SUBSTANTIALLY from 2024!! More than 20%??</t>
         </r>
       </text>
     </comment>
@@ -271,8 +279,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Issue</t>
   </si>
@@ -358,9 +388,6 @@
     <t>Max OOP Individual</t>
   </si>
   <si>
-    <t>Avg / Yr</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
@@ -380,17 +407,52 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>Marginal Tax Rate</t>
+  </si>
+  <si>
+    <t>Member "A" Average</t>
+  </si>
+  <si>
+    <t>Member "B" Average</t>
+  </si>
+  <si>
+    <t>Member "C" Average</t>
+  </si>
+  <si>
+    <t>Deductible Applying Costs</t>
+  </si>
+  <si>
+    <t>Hit Fam Deductible?</t>
+  </si>
+  <si>
+    <t>Our Cost After Deductible</t>
+  </si>
+  <si>
+    <t>Hit Family OOP Max?</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>NonDeductible Costs</t>
+  </si>
+  <si>
+    <t>Total w/ Premium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -555,7 +617,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,14 +656,26 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -923,28 +997,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6844891-A887-1849-A311-9458200AB22B}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G22" sqref="G22"/>
+      <selection pane="topRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,907 +1028,1262 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="M1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="N1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="O1" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
         <v>200</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="30">
+        <v>6</v>
+      </c>
+      <c r="D2" s="30">
+        <v>18</v>
+      </c>
+      <c r="E2" s="30">
         <v>12</v>
       </c>
-      <c r="E2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="F2" s="33"/>
+      <c r="G2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="8">
         <v>30</v>
       </c>
-      <c r="G2" s="8">
+      <c r="I2" s="8">
         <v>25</v>
       </c>
-      <c r="H2" s="9">
+      <c r="J2" s="9">
         <v>25</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="8">
+      <c r="K2" s="10"/>
+      <c r="L2" s="8">
         <v>20</v>
       </c>
-      <c r="K2" s="8">
+      <c r="M2" s="8">
         <v>40</v>
       </c>
-      <c r="L2" s="8">
+      <c r="N2" s="8">
         <v>40</v>
       </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
         <v>400</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="30">
+        <v>4</v>
+      </c>
+      <c r="D3" s="30">
+        <v>12</v>
+      </c>
+      <c r="E3" s="30">
         <v>8</v>
       </c>
-      <c r="E3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="F3" s="33"/>
+      <c r="G3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="8">
         <v>60</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>50</v>
       </c>
-      <c r="H3" s="9">
+      <c r="J3" s="9">
         <v>50</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8">
+      <c r="K3" s="10"/>
+      <c r="L3" s="8">
         <v>30</v>
       </c>
-      <c r="K3" s="8">
+      <c r="M3" s="8">
         <v>60</v>
       </c>
-      <c r="L3" s="8">
+      <c r="N3" s="8">
         <v>60</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="11">
         <v>235</v>
       </c>
-      <c r="C4" s="24">
-        <v>0.39</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="7">
         <v>0.4</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.5</v>
       </c>
       <c r="H4" s="7">
         <v>0.5</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="7">
+        <v>0.5</v>
+      </c>
       <c r="J4" s="7">
         <v>0.5</v>
       </c>
-      <c r="K4" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="7">
         <v>0.5</v>
       </c>
       <c r="M4" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11">
         <v>120</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="30">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="33"/>
+      <c r="G5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="8">
         <v>60</v>
       </c>
-      <c r="G5" s="9">
+      <c r="I5" s="9">
         <v>50</v>
       </c>
-      <c r="H5" s="9">
+      <c r="J5" s="9">
         <v>50</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8">
+      <c r="K5" s="10"/>
+      <c r="L5" s="8">
         <v>30</v>
       </c>
-      <c r="K5" s="8">
+      <c r="M5" s="8">
         <v>60</v>
       </c>
-      <c r="L5" s="8">
+      <c r="N5" s="8">
         <v>60</v>
       </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11">
         <v>20</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="30">
+        <v>9</v>
+      </c>
+      <c r="E6" s="30">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>15</v>
-      </c>
-      <c r="G6" s="9">
-        <v>15</v>
+      <c r="F6" s="33"/>
+      <c r="G6" s="7">
+        <v>0.2</v>
       </c>
       <c r="H6" s="9">
         <v>15</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8">
+      <c r="I6" s="9">
+        <v>15</v>
+      </c>
+      <c r="J6" s="9">
+        <v>15</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8">
         <v>8</v>
       </c>
-      <c r="K6" s="8">
+      <c r="M6" s="8">
         <v>10</v>
       </c>
-      <c r="L6" s="8">
+      <c r="N6" s="8">
         <v>25</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="11">
         <v>100</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45</v>
-      </c>
-      <c r="G7" s="9">
-        <v>45</v>
+      <c r="F7" s="33"/>
+      <c r="G7" s="7">
+        <v>0.2</v>
       </c>
       <c r="H7" s="9">
         <v>45</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8">
+      <c r="I7" s="9">
+        <v>45</v>
+      </c>
+      <c r="J7" s="9">
+        <v>45</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="8">
         <v>30</v>
       </c>
-      <c r="K7" s="8">
+      <c r="M7" s="8">
         <v>50</v>
       </c>
-      <c r="L7" s="8">
+      <c r="N7" s="8">
         <v>60</v>
       </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="11">
         <v>250</v>
       </c>
-      <c r="C8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>75</v>
-      </c>
-      <c r="G8" s="9">
-        <v>75</v>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="7">
+        <v>0.2</v>
       </c>
       <c r="H8" s="9">
         <v>75</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.5</v>
-      </c>
+      <c r="I8" s="9">
+        <v>75</v>
+      </c>
+      <c r="J8" s="9">
+        <v>75</v>
+      </c>
+      <c r="K8" s="10"/>
       <c r="L8" s="7">
         <v>0.5</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="11">
         <v>300</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30">
+        <v>6</v>
+      </c>
+      <c r="E9" s="30">
         <v>4</v>
       </c>
-      <c r="E9" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="F9" s="33"/>
+      <c r="G9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="8">
         <v>60</v>
       </c>
-      <c r="G9" s="8">
+      <c r="I9" s="8">
         <v>50</v>
       </c>
-      <c r="H9" s="9">
+      <c r="J9" s="9">
         <v>50</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="8">
+      <c r="K9" s="10"/>
+      <c r="L9" s="8">
         <v>30</v>
       </c>
-      <c r="K9" s="8">
+      <c r="M9" s="8">
         <v>60</v>
       </c>
-      <c r="L9" s="8">
+      <c r="N9" s="8">
         <v>60</v>
       </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="11">
         <v>3500</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="E10" s="30">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="F10" s="33"/>
+      <c r="G10" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="8">
         <v>300</v>
       </c>
-      <c r="G10" s="8">
+      <c r="I10" s="8">
         <v>300</v>
       </c>
-      <c r="H10" s="9">
+      <c r="J10" s="9">
         <v>250</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="8">
+      <c r="K10" s="10"/>
+      <c r="L10" s="8">
         <v>250</v>
       </c>
-      <c r="K10" s="8">
+      <c r="M10" s="8">
         <v>300</v>
       </c>
-      <c r="L10" s="8">
+      <c r="N10" s="8">
         <v>400</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="11">
         <v>200</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="30">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="F11" s="33"/>
+      <c r="G11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="7">
         <v>0.3</v>
       </c>
-      <c r="G11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="7">
+        <v>0.2</v>
+      </c>
       <c r="J11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="7">
         <v>0.1</v>
       </c>
-      <c r="K11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="13">
+      <c r="M11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N11" s="13">
         <v>0.35</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="11">
         <v>25000</v>
       </c>
-      <c r="C12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="7">
         <v>0.3</v>
       </c>
-      <c r="G12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="7">
+        <v>0.2</v>
+      </c>
       <c r="J12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="7">
         <v>0.1</v>
       </c>
-      <c r="K12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="7">
         <v>0.35</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="11">
         <v>50000</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E13" s="31">
         <v>0.01</v>
       </c>
-      <c r="E13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="F13" s="33"/>
+      <c r="G13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="7">
         <v>0.3</v>
       </c>
-      <c r="G13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="7">
+        <v>0.2</v>
+      </c>
       <c r="J13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="7">
         <v>0.1</v>
       </c>
-      <c r="K13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="7">
         <v>0.35</v>
       </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="15">
         <v>15000</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="32">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="32">
         <v>0.1</v>
       </c>
-      <c r="E14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="F14" s="33"/>
+      <c r="G14" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="7">
         <v>0.3</v>
       </c>
-      <c r="G14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="7">
+        <v>0.2</v>
+      </c>
       <c r="J14" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="7">
         <v>0.05</v>
       </c>
-      <c r="K14" s="7">
+      <c r="M14" s="7">
         <v>0.1</v>
       </c>
-      <c r="L14" s="7">
+      <c r="N14" s="7">
         <v>0.25</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="16"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="8">
+      <c r="G16" s="8">
         <f>273*12</f>
         <v>3276</v>
       </c>
-      <c r="F16" s="17">
+      <c r="H16" s="17">
         <f>333*12</f>
         <v>3996</v>
       </c>
-      <c r="G16" s="17">
+      <c r="I16" s="17">
         <f>488*12</f>
         <v>5856</v>
       </c>
-      <c r="H16" s="17">
+      <c r="J16" s="17">
         <f>776*12</f>
         <v>9312</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="17">
-        <f>(1718.3-602.91)*0.7*12*1.1</f>
-        <v>10306.203599999999</v>
-      </c>
-      <c r="K16" s="17">
-        <f>(1452.65-509.7)*0.7*12*1.1</f>
-        <v>8712.8580000000002</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="17">
-        <f>(1122.96-394.02)*0.7*12*1.1</f>
-        <v>6735.4056</v>
+        <f>(2229.72-782.36)*0.7*12</f>
+        <v>12157.823999999997</v>
       </c>
       <c r="M16" s="17">
-        <f>(1154-404.91)*0.7*12*1.1</f>
-        <v>6921.5916000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="30">
-        <f>SUMPRODUCT(B2:C14)</f>
-        <v>95364.5</v>
-      </c>
-      <c r="D17" t="s">
+        <f>(1826.22-640.78)*0.7*12</f>
+        <v>9957.6959999999999</v>
+      </c>
+      <c r="N16" s="17">
+        <f>(1502.37-527.15)*0.7*12</f>
+        <v>8191.8479999999981</v>
+      </c>
+      <c r="O16" s="17">
+        <f>(1515.23-531.66)*0.7*12</f>
+        <v>8261.9880000000012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="17">
+      <c r="G17" s="17">
         <v>3200</v>
       </c>
-      <c r="F17" s="17">
+      <c r="H17" s="17">
         <v>5500</v>
       </c>
-      <c r="G17" s="17">
+      <c r="I17" s="17">
         <v>2000</v>
       </c>
-      <c r="H17" s="17">
-        <v>500</v>
-      </c>
-      <c r="I17" s="4"/>
       <c r="J17" s="17">
         <v>500</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="4"/>
+      <c r="L17" s="17">
+        <v>500</v>
+      </c>
+      <c r="M17" s="17">
         <v>1250</v>
       </c>
-      <c r="L17" s="17">
+      <c r="N17" s="17">
         <v>3750</v>
       </c>
-      <c r="M17" s="17">
+      <c r="O17" s="17">
         <v>4850</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D18" s="3" t="s">
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" s="17">
-        <v>6000</v>
-      </c>
-      <c r="F18" s="17">
-        <v>7000</v>
       </c>
       <c r="G18" s="17">
         <v>6000</v>
       </c>
       <c r="H18" s="17">
+        <v>7000</v>
+      </c>
+      <c r="I18" s="17">
+        <v>6000</v>
+      </c>
+      <c r="J18" s="17">
         <v>1500</v>
       </c>
-      <c r="J18" s="17">
+      <c r="L18" s="17">
         <v>3000</v>
-      </c>
-      <c r="K18" s="17">
-        <v>8550</v>
-      </c>
-      <c r="L18" s="17">
-        <v>8550</v>
       </c>
       <c r="M18" s="17">
         <v>8550</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+      <c r="N18" s="17">
+        <v>8550</v>
+      </c>
+      <c r="O18" s="17">
+        <v>8550</v>
+      </c>
+      <c r="Q18" s="16"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="18">
+      <c r="G19" s="18">
         <v>6400</v>
       </c>
-      <c r="F19" s="17">
+      <c r="H19" s="17">
         <v>11000</v>
       </c>
-      <c r="G19" s="17">
+      <c r="I19" s="17">
         <v>6000</v>
       </c>
-      <c r="H19" s="17">
+      <c r="J19" s="17">
         <v>1000</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20">
+      <c r="K19" s="19"/>
+      <c r="L19" s="20">
         <v>1000</v>
       </c>
-      <c r="K19" s="20">
+      <c r="M19" s="20">
         <v>2500</v>
       </c>
-      <c r="L19" s="20">
+      <c r="N19" s="20">
         <v>7500</v>
       </c>
-      <c r="M19" s="20">
+      <c r="O19" s="20">
         <v>9700</v>
       </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="27" cm="1">
+        <f t="array" ref="B20">SUMPRODUCT(B2:B14*(C2:E14))</f>
+        <v>60840</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="18">
+      <c r="G20" s="18">
         <v>12000</v>
       </c>
-      <c r="F20" s="17">
+      <c r="H20" s="17">
         <v>14000</v>
       </c>
-      <c r="G20" s="17">
+      <c r="I20" s="17">
         <v>12000</v>
       </c>
-      <c r="H20" s="17">
+      <c r="J20" s="17">
         <v>3000</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20">
+      <c r="K20" s="19"/>
+      <c r="L20" s="20">
         <v>6000</v>
       </c>
-      <c r="K20" s="20">
+      <c r="M20" s="20">
         <v>17100</v>
       </c>
-      <c r="L20" s="20">
+      <c r="N20" s="20">
         <v>17100</v>
       </c>
-      <c r="M20" s="20">
+      <c r="O20" s="20">
         <v>9700</v>
       </c>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D22" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="28">
-        <f>E16</f>
+      <c r="M21" s="16"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="25">
+        <f>G16</f>
         <v>3276</v>
       </c>
-      <c r="F23" s="28">
-        <f>F16</f>
+      <c r="H23" s="25">
+        <f>H16</f>
         <v>3996</v>
       </c>
-      <c r="G23" s="28">
-        <f>G16</f>
+      <c r="I23" s="25">
+        <f>I16</f>
         <v>5856</v>
       </c>
-      <c r="H23" s="28">
-        <f>H16</f>
+      <c r="J23" s="25">
+        <f>J16</f>
         <v>9312</v>
       </c>
-      <c r="J23" s="28">
-        <f>J16</f>
-        <v>10306.203599999999</v>
-      </c>
-      <c r="K23" s="28">
-        <f>K16</f>
-        <v>8712.8580000000002</v>
-      </c>
-      <c r="L23" s="28">
+      <c r="L23" s="25">
         <f>L16</f>
-        <v>6735.4056</v>
-      </c>
-      <c r="M23" s="28">
+        <v>12157.823999999997</v>
+      </c>
+      <c r="M23" s="25">
         <f>M16</f>
-        <v>6921.5916000000007</v>
-      </c>
-      <c r="N23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="28">
-        <f>SUM(E16,E20)</f>
+        <v>9957.6959999999999</v>
+      </c>
+      <c r="N23" s="25">
+        <f>N16</f>
+        <v>8191.8479999999981</v>
+      </c>
+      <c r="O23" s="25">
+        <f>O16</f>
+        <v>8261.9880000000012</v>
+      </c>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="25">
+        <f>SUM(G16,G20)</f>
         <v>15276</v>
       </c>
-      <c r="F24" s="28">
-        <f>SUM(F16,F20)</f>
+      <c r="H24" s="25">
+        <f>SUM(H16,H20)</f>
         <v>17996</v>
       </c>
-      <c r="G24" s="28">
-        <f>SUM(G16,G20)</f>
+      <c r="I24" s="25">
+        <f>SUM(I16,I20)</f>
         <v>17856</v>
       </c>
-      <c r="H24" s="28">
-        <f>SUM(H16,H20)</f>
+      <c r="J24" s="25">
+        <f>SUM(J16,J20)</f>
         <v>12312</v>
       </c>
-      <c r="J24" s="28">
-        <f>SUM(J16,J20)</f>
-        <v>16306.203599999999</v>
-      </c>
-      <c r="K24" s="28">
-        <f>SUM(K16,K20)</f>
-        <v>25812.858</v>
-      </c>
-      <c r="L24" s="28">
+      <c r="L24" s="25">
         <f>SUM(L16,L20)</f>
-        <v>23835.405599999998</v>
-      </c>
-      <c r="M24" s="28">
+        <v>18157.823999999997</v>
+      </c>
+      <c r="M24" s="25">
         <f>SUM(M16,M20)</f>
-        <v>16621.5916</v>
-      </c>
-      <c r="N24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D25" s="31" t="s">
+        <v>27057.696</v>
+      </c>
+      <c r="N24" s="25">
+        <f>SUM(N16,N20)</f>
+        <v>25291.847999999998</v>
+      </c>
+      <c r="O24" s="25">
+        <f>SUM(O16,O20)</f>
+        <v>17961.988000000001</v>
+      </c>
+      <c r="P24" s="21"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F25" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>15364</v>
+      </c>
+      <c r="H25">
+        <v>17996</v>
+      </c>
+      <c r="I25" s="12">
+        <v>17871</v>
+      </c>
+      <c r="J25">
+        <v>12562</v>
+      </c>
+      <c r="L25">
+        <v>16326</v>
+      </c>
+      <c r="M25">
+        <v>24223</v>
+      </c>
+      <c r="N25">
+        <v>23835</v>
+      </c>
+      <c r="O25">
+        <v>17022</v>
+      </c>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
         <v>34</v>
       </c>
-      <c r="E25">
-        <v>15083</v>
-      </c>
-      <c r="F25">
-        <v>17663</v>
-      </c>
-      <c r="G25" s="12">
-        <v>17368</v>
-      </c>
-      <c r="H25">
-        <v>11636</v>
-      </c>
-      <c r="J25">
-        <v>15497</v>
-      </c>
-      <c r="K25">
-        <v>25087</v>
-      </c>
-      <c r="L25">
-        <v>23274</v>
-      </c>
-      <c r="M25">
-        <v>16445</v>
-      </c>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="28">
-        <f>E24-E25</f>
-        <v>193</v>
-      </c>
-      <c r="F26" s="28">
-        <f>F24-F25</f>
+      <c r="G26" s="25">
+        <f>G24-G25</f>
+        <v>-88</v>
+      </c>
+      <c r="H26" s="25">
+        <f>H24-H25</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <f>I24-I25</f>
+        <v>-15</v>
+      </c>
+      <c r="J26" s="25">
+        <f>J24-J25</f>
+        <v>-250</v>
+      </c>
+      <c r="L26" s="25">
+        <f>L24-L25</f>
+        <v>1831.8239999999969</v>
+      </c>
+      <c r="M26" s="25">
+        <f>M24-M25</f>
+        <v>2834.6959999999999</v>
+      </c>
+      <c r="N26" s="25">
+        <f>N24-N25</f>
+        <v>1456.8479999999981</v>
+      </c>
+      <c r="O26" s="25">
+        <f>O24-O25</f>
+        <v>939.98800000000119</v>
+      </c>
+      <c r="P26" s="22"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G27" s="25">
+        <f>G16/12</f>
+        <v>273</v>
+      </c>
+      <c r="H27" s="25">
+        <f>H16/12</f>
         <v>333</v>
       </c>
-      <c r="G26" s="28">
-        <f>G24-G25</f>
+      <c r="I27" s="25">
+        <f>I16/12</f>
         <v>488</v>
       </c>
-      <c r="H26" s="28">
-        <f>H24-H25</f>
-        <v>676</v>
-      </c>
-      <c r="J26" s="28">
-        <f>J24-J25</f>
-        <v>809.20359999999891</v>
-      </c>
-      <c r="K26" s="28">
-        <f>K24-K25</f>
-        <v>725.85800000000017</v>
-      </c>
-      <c r="L26" s="28">
-        <f>L24-L25</f>
-        <v>561.40559999999823</v>
-      </c>
-      <c r="M26" s="28">
-        <f>M24-M25</f>
-        <v>176.59159999999974</v>
-      </c>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E27" s="28">
-        <f>E16/12</f>
-        <v>273</v>
-      </c>
-      <c r="F27" s="28">
-        <f>F16/12</f>
-        <v>333</v>
-      </c>
-      <c r="G27" s="28">
-        <f>G16/12</f>
-        <v>488</v>
-      </c>
-      <c r="H27" s="28">
-        <f>H16/12</f>
+      <c r="J27" s="25">
+        <f>J16/12</f>
         <v>776</v>
       </c>
-      <c r="J27" s="28">
-        <f>J16/12</f>
-        <v>858.85029999999995</v>
-      </c>
-      <c r="K27" s="28">
-        <f>K16/12</f>
-        <v>726.07150000000001</v>
-      </c>
-      <c r="L27" s="28">
+      <c r="L27" s="25">
         <f>L16/12</f>
-        <v>561.28380000000004</v>
-      </c>
-      <c r="M27" s="28">
+        <v>1013.1519999999997</v>
+      </c>
+      <c r="M27" s="25">
         <f>M16/12</f>
-        <v>576.79930000000002</v>
-      </c>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N28" s="22"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N29" s="22"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N34" s="22"/>
-    </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N35" s="21"/>
-    </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N36" s="21"/>
+        <v>829.80799999999999</v>
+      </c>
+      <c r="N27" s="25">
+        <f>N16/12</f>
+        <v>682.65399999999988</v>
+      </c>
+      <c r="O27" s="25">
+        <f>O16/12</f>
+        <v>688.49900000000014</v>
+      </c>
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="25">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="25" cm="1">
+        <f t="array" ref="H28">SUMPRODUCT(H2:H3*($C$2:$E$3))+SUMPRODUCT(H5:H10*($C$5:$E$10))</f>
+        <v>6885</v>
+      </c>
+      <c r="I28" s="25" cm="1">
+        <f t="array" ref="I28">SUMPRODUCT(I2:I3*($C$2:$E$3))+SUMPRODUCT(I5:I10*($C$5:$E$10))</f>
+        <v>6255</v>
+      </c>
+      <c r="J28" s="17" cm="1">
+        <f t="array" ref="J28">SUMPRODUCT(J2:J3*($C$2:$E$3))+SUMPRODUCT(J5:J10*($C$5:$E$10))</f>
+        <v>5805</v>
+      </c>
+      <c r="L28" s="17" cm="1">
+        <f t="array" ref="L28">SUMPRODUCT(L2:L3*($C$2:$E$3))+SUMPRODUCT(L5:L7*($C$5:$E$7))+SUMPRODUCT(L9:L10*($C$9:$E$10))</f>
+        <v>4554</v>
+      </c>
+      <c r="M28" s="17" cm="1">
+        <f t="array" ref="M28">SUMPRODUCT(M2:M3*($C$2:$E$3))+SUMPRODUCT(M5:M7*($C$5:$E$7))+SUMPRODUCT(M9:M10*($C$9:$E$10))</f>
+        <v>7170</v>
+      </c>
+      <c r="N28" s="17" cm="1">
+        <f t="array" ref="N28">SUMPRODUCT(N2:N3*($C$2:$E$3))+SUMPRODUCT(N5:N7*($C$5:$E$7))+SUMPRODUCT(N9:N10*($C$9:$E$10))</f>
+        <v>8370</v>
+      </c>
+      <c r="O28" s="25">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="37" cm="1">
+        <f t="array" ref="G29">SUMPRODUCT($B$2:$B$14*($C$2:$E$14))</f>
+        <v>60840</v>
+      </c>
+      <c r="H29" s="35" cm="1">
+        <f t="array" ref="H29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))</f>
+        <v>7200</v>
+      </c>
+      <c r="I29" s="35" cm="1">
+        <f t="array" ref="I29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))</f>
+        <v>7200</v>
+      </c>
+      <c r="J29" s="22" cm="1">
+        <f t="array" ref="J29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))</f>
+        <v>7200</v>
+      </c>
+      <c r="L29" s="22" cm="1">
+        <f t="array" ref="L29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))+SUMPRODUCT($B$8*($C$8:$E$8))</f>
+        <v>7200</v>
+      </c>
+      <c r="M29" s="22" cm="1">
+        <f t="array" ref="M29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))+SUMPRODUCT($B$8*($C$8:$E$8))</f>
+        <v>7200</v>
+      </c>
+      <c r="N29" s="22" cm="1">
+        <f t="array" ref="N29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))+SUMPRODUCT($B$8*($C$8:$E$8))</f>
+        <v>7200</v>
+      </c>
+      <c r="O29" s="37" cm="1">
+        <f t="array" ref="O29">SUMPRODUCT($B$2:$B$14*($C$2:$E$14))</f>
+        <v>60840</v>
+      </c>
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="b">
+        <f>G29&gt;G19</f>
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <f>H29&gt;H19</f>
+        <v>0</v>
+      </c>
+      <c r="I30" t="b">
+        <f>I29&gt;I19</f>
+        <v>1</v>
+      </c>
+      <c r="J30" s="12" t="b">
+        <f>J29&gt;J19</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="12" t="b">
+        <f>L29&gt;L19</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="12" t="b">
+        <f>M29&gt;M19</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="12" t="b">
+        <f>N29&gt;N19</f>
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <f>O29&gt;O19</f>
+        <v>1</v>
+      </c>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="34">
+        <f>IF(G30,(G29-G19)*AVERAGE(G2:G14),0)</f>
+        <v>11725.538461538463</v>
+      </c>
+      <c r="H31" s="34">
+        <f>IF(H30,(H29-H19)*AVERAGE(H4,H11:H14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="34">
+        <f>IF(I30,(I29-I19)*AVERAGE(I4,I11:I14),0)</f>
+        <v>311.99999999999994</v>
+      </c>
+      <c r="J31" s="36">
+        <f>IF(J30,(J29-J19)*AVERAGE(J4,J11:J14),0)</f>
+        <v>1611.9999999999998</v>
+      </c>
+      <c r="L31" s="36">
+        <f>IF(L30,(L29-L19)*AVERAGE(L4,L11:L14,L8),0)</f>
+        <v>1395</v>
+      </c>
+      <c r="M31" s="36">
+        <f>IF(M30,(M29-M19)*AVERAGE(M4,M11:M14,M8),0)</f>
+        <v>1331.6666666666667</v>
+      </c>
+      <c r="N31" s="36">
+        <f>IF(N30,(N29-N19)*AVERAGE(N4,N11:N14,N8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="34">
+        <f>IF(O30,(O29-O19)*AVERAGE(O2:O14),0)</f>
+        <v>1966.9230769230771</v>
+      </c>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="b">
+        <f>IF(G30,G31+G19&gt;G20,G29&gt;G20)</f>
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <f>IF(H30,H31+H19&gt;H20,H29&gt;H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
+        <f>IF(I30,I31+I19&gt;I20,I29&gt;I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="12" t="b">
+        <f>IF(J30,J31+J19&gt;J20,J29&gt;J20)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12" t="b">
+        <f>IF(L30,L31+L19&gt;L20,L29&gt;L20)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="12" t="b">
+        <f>IF(M30,M31+M19&gt;M20,M29&gt;M20)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="12" t="b">
+        <f>IF(N30,N31+N19&gt;N20,N29&gt;N20)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" t="b">
+        <f>IF(O30,O31+O19&gt;O20,O29&gt;O20)</f>
+        <v>1</v>
+      </c>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="34">
+        <f>IF(G32,G20,IF(G30,G31+G19,G29))+G28</f>
+        <v>12000</v>
+      </c>
+      <c r="H33" s="34">
+        <f>IF(H32,H20,IF(H30,H31+H19,H29))+H28</f>
+        <v>14085</v>
+      </c>
+      <c r="I33" s="34">
+        <f>IF(I32,I20,IF(I30,I31+I19,I29))+I28</f>
+        <v>12567</v>
+      </c>
+      <c r="J33" s="36">
+        <f>IF(J32,J20,IF(J30,J31+J19,J29))+J28</f>
+        <v>8417</v>
+      </c>
+      <c r="L33" s="36">
+        <f>IF(L32,L20,IF(L30,L31+L19,L29))+L28</f>
+        <v>6949</v>
+      </c>
+      <c r="M33" s="36">
+        <f>IF(M32,M20,IF(M30,M31+M19,M29))+M28</f>
+        <v>11001.666666666668</v>
+      </c>
+      <c r="N33" s="36">
+        <f>IF(N32,N20,IF(N30,N31+N19,N29))+N28</f>
+        <v>15570</v>
+      </c>
+      <c r="O33" s="34">
+        <f>IF(O32,O20,IF(O30,O31+O19,O29))+O28</f>
+        <v>9700</v>
+      </c>
+      <c r="P33" s="22"/>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="25">
+        <f>G33+G16</f>
+        <v>15276</v>
+      </c>
+      <c r="H34" s="25">
+        <f>H33+H16</f>
+        <v>18081</v>
+      </c>
+      <c r="I34" s="25">
+        <f>I33+I16</f>
+        <v>18423</v>
+      </c>
+      <c r="J34" s="17">
+        <f>J33+J16</f>
+        <v>17729</v>
+      </c>
+      <c r="L34" s="17">
+        <f>L33+L16</f>
+        <v>19106.823999999997</v>
+      </c>
+      <c r="M34" s="17">
+        <f>M33+M16</f>
+        <v>20959.362666666668</v>
+      </c>
+      <c r="N34" s="17">
+        <f>N33+N16</f>
+        <v>23761.847999999998</v>
+      </c>
+      <c r="O34" s="25">
+        <f>O33+O16</f>
+        <v>17961.988000000001</v>
+      </c>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="22"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="P36" s="21"/>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="P37" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Health_Monte_Carlo_Input.xlsx
+++ b/Health_Monte_Carlo_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beau/Git/Health_Insurance_Sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F961D8B-92F6-DE45-98A1-4B14FA68BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC11223-7FD0-4F43-907D-E873C9CCB3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{F6F7CCB2-3530-C445-A614-1A88D2B30731}"/>
   </bookViews>
@@ -1636,7 +1636,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>

--- a/Health_Monte_Carlo_Input.xlsx
+++ b/Health_Monte_Carlo_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beau/Git/Health_Insurance_Sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC11223-7FD0-4F43-907D-E873C9CCB3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7F061-6DF4-FD44-B306-D2F47E3CCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{F6F7CCB2-3530-C445-A614-1A88D2B30731}"/>
   </bookViews>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Issue</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>Total w/ Premium</t>
+  </si>
+  <si>
+    <t>Output Mean</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1912,19 +1915,19 @@
         <v>33</v>
       </c>
       <c r="G25">
-        <v>15364</v>
+        <v>15976</v>
       </c>
       <c r="H25">
-        <v>17996</v>
+        <v>18056</v>
       </c>
       <c r="I25" s="12">
-        <v>17871</v>
+        <v>17906</v>
       </c>
       <c r="J25">
-        <v>12562</v>
+        <v>12512</v>
       </c>
       <c r="L25">
-        <v>16326</v>
+        <v>18407</v>
       </c>
       <c r="M25">
         <v>24223</v>
@@ -1943,23 +1946,23 @@
       </c>
       <c r="G26" s="25">
         <f>G24-G25</f>
-        <v>-88</v>
+        <v>-700</v>
       </c>
       <c r="H26" s="25">
         <f>H24-H25</f>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="I26" s="25">
         <f>I24-I25</f>
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="J26" s="25">
         <f>J24-J25</f>
-        <v>-250</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="25">
         <f>L24-L25</f>
-        <v>1831.8239999999969</v>
+        <v>-249.17600000000311</v>
       </c>
       <c r="M26" s="25">
         <f>M24-M25</f>
@@ -2277,9 +2280,62 @@
       <c r="P34" s="12"/>
     </row>
     <row r="35" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F35" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35">
+        <v>15203</v>
+      </c>
+      <c r="H35">
+        <v>13221</v>
+      </c>
+      <c r="I35" s="12">
+        <v>14180</v>
+      </c>
+      <c r="J35">
+        <v>12318</v>
+      </c>
+      <c r="L35">
+        <v>17567</v>
+      </c>
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="6:16" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="25">
+        <f>G34-G35</f>
+        <v>73</v>
+      </c>
+      <c r="H36" s="25">
+        <f>H34-H35</f>
+        <v>4860</v>
+      </c>
+      <c r="I36" s="25">
+        <f>I34-I35</f>
+        <v>4243</v>
+      </c>
+      <c r="J36" s="25">
+        <f>J34-J35</f>
+        <v>5411</v>
+      </c>
+      <c r="L36" s="25">
+        <f>L34-L35</f>
+        <v>1539.8239999999969</v>
+      </c>
+      <c r="M36" s="25">
+        <f>M34-M35</f>
+        <v>20959.362666666668</v>
+      </c>
+      <c r="N36" s="25">
+        <f>N34-N35</f>
+        <v>23761.847999999998</v>
+      </c>
+      <c r="O36" s="25">
+        <f>O34-O35</f>
+        <v>17961.988000000001</v>
+      </c>
       <c r="P36" s="21"/>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.2">

--- a/Health_Monte_Carlo_Input.xlsx
+++ b/Health_Monte_Carlo_Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beau/Git/Health_Insurance_Sim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C7F061-6DF4-FD44-B306-D2F47E3CCB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83489A5B-CFDA-4342-8D86-DE064C7187D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{F6F7CCB2-3530-C445-A614-1A88D2B30731}"/>
   </bookViews>
@@ -105,162 +105,6 @@
     <author>Beau Griffith</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{CCD0B4F9-AC47-EC4D-86E6-3F76A8245C6C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Beau Griffith:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Was 7 before baby. Now is 7 + 5 = 12.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{592E2CC7-D9EA-4546-8FE4-A5E3FB240C01}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Beau Griffith:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Was 6 before baby. Now 6 + 2 = 8.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{80349C8B-5B70-5442-A8EF-8C3DFD7C686E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Beau Griffith:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Was 2 before baby. Now is 2 + 4 = 6.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{973BCDFE-BBFC-D24B-BCD3-3EC626EF36AE}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Beau Griffith:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Was 2 before baby. Now is 2 + 2 = 4.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{3543CFCB-83F1-BA4E-899F-EEBC04C0DF97}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Beau Griffith:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Was 1 before baby. Now is 1 + 2 = 3.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="L16" authorId="0" shapeId="0" xr:uid="{5DA423FA-E372-A04A-A52F-613C9678945A}">
       <text>
         <r>
@@ -409,9 +253,6 @@
     <t>Diff</t>
   </si>
   <si>
-    <t>Marginal Tax Rate</t>
-  </si>
-  <si>
     <t>Member "A" Average</t>
   </si>
   <si>
@@ -443,6 +284,9 @@
   </si>
   <si>
     <t>Output Mean</t>
+  </si>
+  <si>
+    <t>Effective Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -457,7 +301,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,25 +347,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -663,7 +488,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1004,7 +829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1031,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>2</v>
@@ -1073,10 +898,10 @@
         <v>200</v>
       </c>
       <c r="C2" s="30">
+        <v>2</v>
+      </c>
+      <c r="D2" s="30">
         <v>6</v>
-      </c>
-      <c r="D2" s="30">
-        <v>18</v>
       </c>
       <c r="E2" s="30">
         <v>12</v>
@@ -1116,13 +941,13 @@
         <v>400</v>
       </c>
       <c r="C3" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" s="30">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E3" s="30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="7">
@@ -1202,13 +1027,13 @@
         <v>120</v>
       </c>
       <c r="C5" s="30">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="30">
         <v>4.5</v>
       </c>
       <c r="E5" s="30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="7">
@@ -1245,13 +1070,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="30">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30">
         <v>3</v>
       </c>
-      <c r="D6" s="30">
-        <v>9</v>
-      </c>
       <c r="E6" s="30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="7">
@@ -1291,10 +1116,10 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="30">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="7">
@@ -1334,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="30">
         <v>0</v>
@@ -1377,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="30">
         <v>4</v>
@@ -1417,13 +1242,13 @@
         <v>3500</v>
       </c>
       <c r="C10" s="30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="30">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="7">
@@ -1463,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="7">
@@ -1549,10 +1374,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13" s="31">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E13" s="31">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="7">
@@ -1589,13 +1414,13 @@
         <v>15000</v>
       </c>
       <c r="C14" s="32">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D14" s="32">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="E14" s="32">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="7">
@@ -1636,7 +1461,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B16" s="29">
         <v>0</v>
@@ -1783,7 +1608,7 @@
       </c>
       <c r="B20" s="27" cm="1">
         <f t="array" ref="B20">SUMPRODUCT(B2:B14*(C2:E14))</f>
-        <v>60840</v>
+        <v>31720</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2015,7 +1840,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="25">
         <f>0</f>
@@ -2023,27 +1848,27 @@
       </c>
       <c r="H28" s="25" cm="1">
         <f t="array" ref="H28">SUMPRODUCT(H2:H3*($C$2:$E$3))+SUMPRODUCT(H5:H10*($C$5:$E$10))</f>
-        <v>6885</v>
+        <v>3982.5</v>
       </c>
       <c r="I28" s="25" cm="1">
         <f t="array" ref="I28">SUMPRODUCT(I2:I3*($C$2:$E$3))+SUMPRODUCT(I5:I10*($C$5:$E$10))</f>
-        <v>6255</v>
+        <v>3637.5</v>
       </c>
       <c r="J28" s="17" cm="1">
         <f t="array" ref="J28">SUMPRODUCT(J2:J3*($C$2:$E$3))+SUMPRODUCT(J5:J10*($C$5:$E$10))</f>
-        <v>5805</v>
+        <v>3387.5</v>
       </c>
       <c r="L28" s="17" cm="1">
         <f t="array" ref="L28">SUMPRODUCT(L2:L3*($C$2:$E$3))+SUMPRODUCT(L5:L7*($C$5:$E$7))+SUMPRODUCT(L9:L10*($C$9:$E$10))</f>
-        <v>4554</v>
+        <v>2592</v>
       </c>
       <c r="M28" s="17" cm="1">
         <f t="array" ref="M28">SUMPRODUCT(M2:M3*($C$2:$E$3))+SUMPRODUCT(M5:M7*($C$5:$E$7))+SUMPRODUCT(M9:M10*($C$9:$E$10))</f>
-        <v>7170</v>
+        <v>4085</v>
       </c>
       <c r="N28" s="17" cm="1">
         <f t="array" ref="N28">SUMPRODUCT(N2:N3*($C$2:$E$3))+SUMPRODUCT(N5:N7*($C$5:$E$7))+SUMPRODUCT(N9:N10*($C$9:$E$10))</f>
-        <v>8370</v>
+        <v>4765</v>
       </c>
       <c r="O28" s="25">
         <f>0</f>
@@ -2053,45 +1878,45 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="37" cm="1">
         <f t="array" ref="G29">SUMPRODUCT($B$2:$B$14*($C$2:$E$14))</f>
-        <v>60840</v>
+        <v>31720</v>
       </c>
       <c r="H29" s="35" cm="1">
         <f t="array" ref="H29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="I29" s="35" cm="1">
         <f t="array" ref="I29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="J29" s="22" cm="1">
         <f t="array" ref="J29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))</f>
-        <v>7200</v>
+        <v>1800</v>
       </c>
       <c r="L29" s="22" cm="1">
         <f t="array" ref="L29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))+SUMPRODUCT($B$8*($C$8:$E$8))</f>
-        <v>7200</v>
+        <v>2050</v>
       </c>
       <c r="M29" s="22" cm="1">
         <f t="array" ref="M29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))+SUMPRODUCT($B$8*($C$8:$E$8))</f>
-        <v>7200</v>
+        <v>2050</v>
       </c>
       <c r="N29" s="22" cm="1">
         <f t="array" ref="N29">SUMPRODUCT($B$4*($C$4:$E$4))+SUMPRODUCT($B$11:$B$14*($C$11:$E$14))+SUMPRODUCT($B$8*($C$8:$E$8))</f>
-        <v>7200</v>
+        <v>2050</v>
       </c>
       <c r="O29" s="37" cm="1">
         <f t="array" ref="O29">SUMPRODUCT($B$2:$B$14*($C$2:$E$14))</f>
-        <v>60840</v>
+        <v>31720</v>
       </c>
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="b">
         <f>G29&gt;G19</f>
@@ -2103,7 +1928,7 @@
       </c>
       <c r="I30" t="b">
         <f>I29&gt;I19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="12" t="b">
         <f>J29&gt;J19</f>
@@ -2115,7 +1940,7 @@
       </c>
       <c r="M30" s="12" t="b">
         <f>M29&gt;M19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="12" t="b">
         <f>N29&gt;N19</f>
@@ -2129,11 +1954,11 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="34">
         <f>IF(G30,(G29-G19)*AVERAGE(G2:G14),0)</f>
-        <v>11725.538461538463</v>
+        <v>5453.5384615384619</v>
       </c>
       <c r="H31" s="34">
         <f>IF(H30,(H29-H19)*AVERAGE(H4,H11:H14),0)</f>
@@ -2141,19 +1966,19 @@
       </c>
       <c r="I31" s="34">
         <f>IF(I30,(I29-I19)*AVERAGE(I4,I11:I14),0)</f>
-        <v>311.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="J31" s="36">
         <f>IF(J30,(J29-J19)*AVERAGE(J4,J11:J14),0)</f>
-        <v>1611.9999999999998</v>
+        <v>207.99999999999997</v>
       </c>
       <c r="L31" s="36">
         <f>IF(L30,(L29-L19)*AVERAGE(L4,L11:L14,L8),0)</f>
-        <v>1395</v>
+        <v>236.25</v>
       </c>
       <c r="M31" s="36">
         <f>IF(M30,(M29-M19)*AVERAGE(M4,M11:M14,M8),0)</f>
-        <v>1331.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="N31" s="36">
         <f>IF(N30,(N29-N19)*AVERAGE(N4,N11:N14,N8),0)</f>
@@ -2161,17 +1986,17 @@
       </c>
       <c r="O31" s="34">
         <f>IF(O30,(O29-O19)*AVERAGE(O2:O14),0)</f>
-        <v>1966.9230769230771</v>
+        <v>846.92307692307702</v>
       </c>
       <c r="P31" s="12"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="b">
         <f>IF(G30,G31+G19&gt;G20,G29&gt;G20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <f>IF(H30,H31+H19&gt;H20,H29&gt;H20)</f>
@@ -2205,35 +2030,35 @@
     </row>
     <row r="33" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="34">
         <f>IF(G32,G20,IF(G30,G31+G19,G29))+G28</f>
-        <v>12000</v>
+        <v>11853.538461538461</v>
       </c>
       <c r="H33" s="34">
         <f>IF(H32,H20,IF(H30,H31+H19,H29))+H28</f>
-        <v>14085</v>
+        <v>5782.5</v>
       </c>
       <c r="I33" s="34">
         <f>IF(I32,I20,IF(I30,I31+I19,I29))+I28</f>
-        <v>12567</v>
+        <v>5437.5</v>
       </c>
       <c r="J33" s="36">
         <f>IF(J32,J20,IF(J30,J31+J19,J29))+J28</f>
-        <v>8417</v>
+        <v>4595.5</v>
       </c>
       <c r="L33" s="36">
         <f>IF(L32,L20,IF(L30,L31+L19,L29))+L28</f>
-        <v>6949</v>
+        <v>3828.25</v>
       </c>
       <c r="M33" s="36">
         <f>IF(M32,M20,IF(M30,M31+M19,M29))+M28</f>
-        <v>11001.666666666668</v>
+        <v>6135</v>
       </c>
       <c r="N33" s="36">
         <f>IF(N32,N20,IF(N30,N31+N19,N29))+N28</f>
-        <v>15570</v>
+        <v>6815</v>
       </c>
       <c r="O33" s="34">
         <f>IF(O32,O20,IF(O30,O31+O19,O29))+O28</f>
@@ -2243,35 +2068,35 @@
     </row>
     <row r="34" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" s="25">
         <f>G33+G16</f>
-        <v>15276</v>
+        <v>15129.538461538461</v>
       </c>
       <c r="H34" s="25">
         <f>H33+H16</f>
-        <v>18081</v>
+        <v>9778.5</v>
       </c>
       <c r="I34" s="25">
         <f>I33+I16</f>
-        <v>18423</v>
+        <v>11293.5</v>
       </c>
       <c r="J34" s="17">
         <f>J33+J16</f>
-        <v>17729</v>
+        <v>13907.5</v>
       </c>
       <c r="L34" s="17">
         <f>L33+L16</f>
-        <v>19106.823999999997</v>
+        <v>15986.073999999997</v>
       </c>
       <c r="M34" s="17">
         <f>M33+M16</f>
-        <v>20959.362666666668</v>
+        <v>16092.696</v>
       </c>
       <c r="N34" s="17">
         <f>N33+N16</f>
-        <v>23761.847999999998</v>
+        <v>15006.847999999998</v>
       </c>
       <c r="O34" s="25">
         <f>O33+O16</f>
@@ -2281,7 +2106,7 @@
     </row>
     <row r="35" spans="6:16" x14ac:dyDescent="0.2">
       <c r="F35" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35">
         <v>15203</v>
@@ -2306,31 +2131,31 @@
       </c>
       <c r="G36" s="25">
         <f>G34-G35</f>
-        <v>73</v>
+        <v>-73.461538461539021</v>
       </c>
       <c r="H36" s="25">
         <f>H34-H35</f>
-        <v>4860</v>
+        <v>-3442.5</v>
       </c>
       <c r="I36" s="25">
         <f>I34-I35</f>
-        <v>4243</v>
+        <v>-2886.5</v>
       </c>
       <c r="J36" s="25">
         <f>J34-J35</f>
-        <v>5411</v>
+        <v>1589.5</v>
       </c>
       <c r="L36" s="25">
         <f>L34-L35</f>
-        <v>1539.8239999999969</v>
+        <v>-1580.9260000000031</v>
       </c>
       <c r="M36" s="25">
         <f>M34-M35</f>
-        <v>20959.362666666668</v>
+        <v>16092.696</v>
       </c>
       <c r="N36" s="25">
         <f>N34-N35</f>
-        <v>23761.847999999998</v>
+        <v>15006.847999999998</v>
       </c>
       <c r="O36" s="25">
         <f>O34-O35</f>
